--- a/data/hotels_by_city/Dallas/Dallas_shard_200.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_200.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>LeeAnn C</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t xml:space="preserve">The staff was very friendly. It was a nice place to stay. Very convenient. Right by the interstate. Bed was comfortable. Very good for the price. Very clean place. It has a pilot store right beside it with a Wendy’s if you need something quick. </t>
   </si>
   <si>
+    <t>making6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r570008389-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Bill B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r567247923-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Geri C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r563798956-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -225,6 +237,9 @@
     <t xml:space="preserve">Older but clean and comfortable especially for the price. Pleased overall. No vending machine for water or soda however. We’d stay again. Quiet during our stay. It was a last minute decision with room availability. </t>
   </si>
   <si>
+    <t>Sonja C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r538280790-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -246,6 +261,9 @@
     <t>We needed a cheap room to sleep &amp; shower for the night driving from Houston to Roswell, New Mexico.  For $55 we got 2 queen beds in a non smoking room.  We were given a room next to the smoking rooms which I was very apprehensive about because I am very sensitive to cigarette smoke.  I figured "you get what you pay for".  We were very happy that we could not smell smoke at all throughout our stay.  The room was very clean, the beds were comfortable, the shower had great water pressure and the blackout curtains helped us sleep in for a little while.  The continental breakfast was just that: cereal, toast, muffins, apples, oranges, milk, orange juice &amp; coffee.  It was clean and presented well.  We have no complaints.More</t>
   </si>
   <si>
+    <t>Morgan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r535700476-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -261,6 +279,9 @@
     <t>Alex was kind, courteous and helpful from the gecko when he answered our phone call when we were about forty minutes out. When heading out we had just missed breakfast by a few minutes and Shaun went out of her way to get us cups for coffee and muffins anyway. Great staff and great stay! Thanks so much :) Ps clean room and housekeeping on point</t>
   </si>
   <si>
+    <t>markburly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r520876292-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -282,6 +303,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Bill_W5PT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r513274540-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -300,6 +324,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Pleased_Customer123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r508415568-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t>This is a very clean-nice-great priced motel that is near downtown Weatherford but close enough to I-20 that access to/from is easy.  The room we stayed in was very large, there was space to move around in and all the amenities were available in the room (i.e. good Wi-Fi signal, flat screen TV, desk, etc.).The only negative about the facility is that it does not have an elevator to the second floor.I would recommend this motel to my friends/relatives.More</t>
   </si>
   <si>
+    <t>TexasCatBird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r501979822-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t>We stayed overnight here in Weatherford so we could attend the annual Peach Festival.  Stayed on the Friday night prior to the event.  First, the location just off I-20 is only a couple of miles from downtown Weatherford.  Our check-in was friendly and efficient.  My hubby, brother, sister-in law, and I had separate rooms.  Our room was upstairs and theirs was on the first floor.  Our rooms were clean, comfortable, and without any odors.  However, the hallways had a musty, old-motel, smoky smell.  Once you were in the rooms there was no issue.  So for a 1 night stay at a very reasonable rate I would stay here again.</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r465702183-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -369,6 +402,9 @@
     <t>We drove 700 miles and booked online through booking.com. We checked in and was the told that we could not park our Penske truck on premises but could use an adjacent dirt unlit lot or park at the Pilot station across the street but might get towed.  It was 10PM and there were about 30 spaces in the lot.  After going for something to eat we decided that both options were unacceptable.  We asked for a refund which was denied because we had entered the room and Alex could give us no real reason why we could not park on-site.  We ended up leaving and getting a room closeby.  Awful experience.More</t>
   </si>
   <si>
+    <t>Ms L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r456269310-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>Very UNFRIENDLY service desk. Would not honor Trip Advisors advertised price for an unreserved stay UNLIKE every other hotel on the planet. Bad business. The couple things this place does have going for it are a Wendy's across the heavily truck travelled landscape known as 1-30. Heavy construction in this area for forever.More</t>
   </si>
   <si>
+    <t>sgtpppr84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r428445904-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -420,6 +459,9 @@
     <t>We stayed one night at this Econo Lodge while driving to visit family. It's a simple, very basic hotel, but has exactly what's needed to get a good night's sleep. We paid $50 for the night with our AAA discount, which we found to be an exceptional value. Our room was larger than I would have expected and it even had a mini-fridge, microwave and coffee maker. The room was clean, the bed was comfortable and there was a simple continental breakfast available in the morning. The front desk clerk was very friendly and welcoming, checking us in quickly and filling our request for an extra blanket. We were very pleased with our stay. If you're traveling through Weatherford and all you need is a good, clean place to sleep, check out this hotel. More</t>
   </si>
   <si>
+    <t>GTinCOL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r400631308-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Alisa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r392658231-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -456,6 +501,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>OU4EVR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r382549932-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -471,6 +519,9 @@
     <t>Booked this room direct and got a great rate. Hotel was in a great location right off of I-20 about 2 miles from exit to Weatherford restaurants. Very clean and beds were comfortable. I did have to pull the bed topper off due to it being dirty but other than that beds were clean and comfortable. I didn't do breakfast so I'm unsure what kid they have. I would recommend this place to anyone traveling through.</t>
   </si>
   <si>
+    <t>curiousn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r378362157-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -489,6 +540,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>calgontakemeaway2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r371464838-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -504,6 +558,9 @@
     <t>I called and made reservations, and was immediately greeted by a sweet lady who took care of our stay and additional calls, verifying our reservation. It's a quiet small hotel, which appears to be family run. It was a delightful stay, in clean rooms, with fresh towels and a warm smile when we arrived and when we left. Thank you so much. When we are back in town, I will definitely look to stay with you again.</t>
   </si>
   <si>
+    <t>Erica L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r366377934-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -525,6 +582,9 @@
     <t>This place is small which is good when you are worried about deviance in the parking lot. It was right off the highway and near a gas station which was nice. Their breakfast was vary basic but good overall. The staff was polite and there was sufficient parking spots. The lobby was clean and the room was basically clean however, I did not like that the room had an odd odor and I literally went and bought cleaning supplies to wipe down the surfaces and spray the bed. I just hated the odor. The hotel was humid, bugs, mold and gross bacteria love humidity. I just hated that part of the stay. It just felt creepy. But it turned out that the stay was quiet, I didn't actually see any bugs inside the hotel, the bed showed NO signs of infestation, and the internet worked great. If I had to come back for the same price, I would. If I had to pay $15 more, I would look around for another room.More</t>
   </si>
   <si>
+    <t>Michelle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r364746249-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -540,6 +600,9 @@
     <t>The prices are great. The rooms were very clean,  we have paid double the price and have gotten less,  the gentleman at the front desk was super friendly !  We came in very late could not find any where to stay in Fort Worth, he got us in quickly!Can't complain.</t>
   </si>
   <si>
+    <t>Zinny K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r356681149-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -561,6 +624,9 @@
     <t>I called ahead to make sure there was availability. The lady that answered was friendly, thorough, and quite helpful regarding truck parking. She explained that there wasn't room in their actual parking lot, but there is a Pilot Travel Center across the street (literally, 50 yards away with a Wendy's in it) or an empty dirt lot next door. Perfect. I got to the motel after 690 grueling hours and the gentleman at the front counter was friendly, courteous, and professional. The room was clean and comfortable. I've stayed in Quality Inns with less quality than this Econolodge. I put it up there with a nice Comfort Inn/Suites property. The Wifi here was around 6 gb/s down and 5 up, more than enough to FaceTime with my wife. For a low cost ($65+taxes) inn, it has great customer service, clean rooms, good wifi, and even a nice power center with 2 USB and 2 110V outlets. The TV is an old Tube TV, but for the price, who cares? I would have paid $70 for the room if it had a nice LCD 32" or bigger HDTV. The water pressure in the shower was excellent. The bed was comfortable to me. I stay at a lot (50+) motels and hotels per year. This is definitely on my list if I end up here again! Thank you for the accommodations. More</t>
   </si>
   <si>
+    <t>pixster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r333604172-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -582,6 +648,9 @@
     <t>If you want a good, clean affordable room while traveling in the Fort Worth area, this is the hotel to go to! While traveling back east from San Diego, I was looking for our normal stop hotel chain. We pulled into the local Subway shop to get a late supper and seen the hotel across the way. I decided to look on the TripAdvisor reviews. I was surprised when the ratings came back positive because I don't usually view an Econolodge as clean and up kept as this one was. It also advertised a price of 37.99. So I decided to check them out. The price was 49.99, with the 39.99 price being for singles and for 5 nites. Made sense and don't hold it against them. The room was clean. The beds comfortable. Modern and updated. It did not have a fridge or mic. Had coffee service in the room. (Some don't). The breakfast was continental. Donuts and cinnamon buns. Nothing fancy but a small breakfast to get you going. I give it a 4  because of 3 notable things. There was no elevator, the water was musty smelling in which my husband determined it was the shower head and not the water itself. (We reported this to the front desk before we left). And the fact that the non smoking rooms were on the same floor as the smoking rooms. I could smell the cigarette smoke wafting under...If you want a good, clean affordable room while traveling in the Fort Worth area, this is the hotel to go to! While traveling back east from San Diego, I was looking for our normal stop hotel chain. We pulled into the local Subway shop to get a late supper and seen the hotel across the way. I decided to look on the TripAdvisor reviews. I was surprised when the ratings came back positive because I don't usually view an Econolodge as clean and up kept as this one was. It also advertised a price of 37.99. So I decided to check them out. The price was 49.99, with the 39.99 price being for singles and for 5 nites. Made sense and don't hold it against them. The room was clean. The beds comfortable. Modern and updated. It did not have a fridge or mic. Had coffee service in the room. (Some don't). The breakfast was continental. Donuts and cinnamon buns. Nothing fancy but a small breakfast to get you going. I give it a 4  because of 3 notable things. There was no elevator, the water was musty smelling in which my husband determined it was the shower head and not the water itself. (We reported this to the front desk before we left). And the fact that the non smoking rooms were on the same floor as the smoking rooms. I could smell the cigarette smoke wafting under the doors and through the vents when the person next door lit up. The room itself DID NOT smell like a cigarette but the stairs going to the second floor did.  So you had to pass through the smell to get to your room. But a nice hotel and room overall. Would not hesitate to stop here again but would ask for a room away from the smoking rooms.More</t>
   </si>
   <si>
+    <t>KLC86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r326522215-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -600,6 +669,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Pasha B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r316421591-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -621,12 +693,18 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>RetNav2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r286033631-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
     <t>286033631</t>
   </si>
   <si>
+    <t>jham e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r280881791-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -645,6 +723,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Sherry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r280499794-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -666,6 +747,9 @@
     <t>I chose this hotel as a economical option for a short stay, not expecting anything.Pros: obviously been remodeled, good remodel, awesome shower (the nice water pressure and shower head will close the deal), awesome King bed, great price that includes a refrigerator and microwave (most more expensive hotels do not have both). Yeah, I went on about the shower, but you will too. Front desk was super helpful when I called to ask for a late check in. Continental breakfast was good enough. If you need more food, a travel center is nearly across the street. No noise kept me awake at night.Cons: hmmm, did not really stay there long enough to see or find any, you might not either. It will not matter after you take that shower.More</t>
   </si>
   <si>
+    <t>georgiagranny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r274085487-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -684,6 +768,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>drb_ATL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r269207566-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -699,6 +786,9 @@
     <t>Our room was on the ground floor right by the entrance, so I assumed we would be bothered by guests coming and going.  Thankfully, I slept very well, never hearing other guests at all. Their free breakfast was minimal, at best. But the price was right and suited our needs perfectly.</t>
   </si>
   <si>
+    <t>Belinda M J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r264709780-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -714,6 +804,9 @@
     <t>Pleasant stay. Grounds and building beautifully maintained. 2 Q - nonsmoking. Very friendly and helpful staff. Roomy with nice amenities, clean and fresh, quiet, with comfortable beds. Good shower, good TV reception and free wifi. Strong and reliable HVAC unit. True continental breakfast. Coffee, cereal, pastries - adequate considering low cost to stay. Fuel and fast food within walking distance. Second time here and would stay again.</t>
   </si>
   <si>
+    <t>robinagragg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r258474909-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -732,6 +825,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>_MaverickTravelor_</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r254198755-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -750,6 +846,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Vicki S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r246163191-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -771,6 +870,9 @@
     <t>Because of the good reviews we went ahead and booked a room at this hotel. It's so RARE to find a clean room for less than $70, but this is one! The desk clerk was very friendly and helpful, the hallway and room was very clean and the bed was comfortable. On the downside, it was the skimpiest breakfast I've seen in a LONG time. Just cold cereal or toast or muffins and juice. But I consoled myself with the fact that we'd saved $20 or $30 on the room rental. :-) Cold cereal never hurt anybody. --Also the "breakfast room" consists of 2 tables with 4 chairs each that are squeezed into the hallway at the front door. It's obvious that breakfast isn't high on their priority list. Would I stay here again? You bet! The price is good and the rooms are clean. That's what's most important to me.More</t>
   </si>
   <si>
+    <t>Whitney G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r220842880-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -792,6 +894,9 @@
     <t>We were traveling through the area at 230am and made a point to stop at this hotel.  I asked if they had rooms available and was told I had a choice.  I asked about a DAV rate or discount and then I was told we couldn't stay.  There was no room for a pickup pulling a trailer.  I pointed out there was one similar to ours in the parking lot already and said we could park next to that one so as to not take up more parking space.  We were denied a room and left.  I felt strongly it was because I mentioned being a disabled veteran because immediately afterwards there was no room at the inn...so to speak. I don't trav much but when rooms were available it's 230 am and I am turned away because you suddenly need the parking space that we were going to share with other vehicles like us...Not cool, not cool...I do not recommend this place.  It wasn't friendly and not military friendly for sure! More</t>
   </si>
   <si>
+    <t>Ldcorley12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r220006817-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -807,6 +912,9 @@
     <t xml:space="preserve">The place was nice and clean . Staff was friendly.  Wouldn't be a vacation hotel. Just a place to stay while traveling through the area :) we was satisfied for the night. You get for what you pay for here. </t>
   </si>
   <si>
+    <t>Tiffany B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r195837527-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -825,6 +933,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>lindsays17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r193240558-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -840,6 +951,9 @@
     <t>We are in a different city every night due to business. Its not often to find a room as large and clean as this one. The staff was nice and we had a very comfortable stay. If business takes us in this area again we will definately stay here.</t>
   </si>
   <si>
+    <t>LNTS1205</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r192772128-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -855,6 +969,9 @@
     <t xml:space="preserve">Stated at hotel during a one night sports event.  Room was large and clean.  Staff was pleasant.  The only downfall we found was the continental breakfast.  The breakfast was VERY limited, with only a few cold cereals, muffins, and coffee.  </t>
   </si>
   <si>
+    <t>Kristen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r184539622-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -873,6 +990,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Nana2Five</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r183735068-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -888,6 +1008,9 @@
     <t>We missed our exit to all hotels as we were u-turning we saw this Econo Lodge. I checked trip advisor &amp; saw the positive stays &amp; we ended up here. It is a good, clean hotel. Comfortable bed, good shower, quiet &amp; great price! We would stay again. I am so happy to be able to trust the info I read on trip advisor. Thank you!</t>
   </si>
   <si>
+    <t>Summertime1950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r160778772-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -903,6 +1026,9 @@
     <t>Our car broke down and we wound up at this place after the mechanic recommended it. It was 112 outside so we were thrilled to find a nice cool place after sitting in the heat waiting for a tow truck. The rooms were very clean and office staff nice. There was not a wide variety of places to eat within walking distance tho</t>
   </si>
   <si>
+    <t>Jill S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r157189220-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1047,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>DaphneD718</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r155008740-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1071,9 @@
     <t>Can I give this a ZERO rating?!!!  Terrible experience.  John, the manager, has zero people skills.  He is rude and accused us of having fake IDs even though I had booked online, had my AZ drivers license and my credit card. I had stayed in 2 other hotels that week since I was travelling to a convention and this was the only hotel that gave us trouble.  He even threatened to call the police because he would not listen to me that AZ drivers licenses have expiration dates that are far in the future. Mine is in 2058.  Ignorant staff, rude, and excuses their rudeness by saying they have the right to collect information.  I did not hesitate and was not rude about giving my information so I had no problem with that.  I did have a problem with him falsely accusing me of having a fake id and threatening me with calling the police.  NEVER AGAIN will I stay at this sad excuse of a hotel chain!!!More</t>
   </si>
   <si>
+    <t>katncol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r152998860-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1092,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Alex Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r126989298-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1113,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>BullardTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r73834324-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -996,6 +1134,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>wshAkron</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r57129619-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1153,9 @@
   </si>
   <si>
     <t>February 2010</t>
+  </si>
+  <si>
+    <t>jimmydaves</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r47276450-Econo_Lodge-Weatherford_Texas.html</t>
@@ -1547,34 +1691,38 @@
       <c r="A2" t="n">
         <v>52056</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>132154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
@@ -1593,50 +1741,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52056</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>132155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1650,50 +1802,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52056</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>16664</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>56</v>
-      </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1707,50 +1863,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52056</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>132156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
         <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1764,50 +1924,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52056</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>42298</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1821,41 +1985,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52056</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>110482</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -1874,50 +2042,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52056</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1935,50 +2107,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52056</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>132158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1996,50 +2172,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52056</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2055,56 +2235,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52056</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>49643</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2124,50 +2308,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52056</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2179,56 +2367,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52056</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2240,56 +2432,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="X13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52056</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>132161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2303,50 +2499,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52056</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>132162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2364,50 +2564,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52056</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>102168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2425,50 +2629,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52056</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>132163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2488,50 +2696,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52056</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>43631</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2551,50 +2763,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52056</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2614,50 +2830,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52056</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>54356</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2677,41 +2897,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52056</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>8909</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -2730,50 +2954,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52056</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2787,50 +3015,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52056</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>132166</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2850,50 +3082,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52056</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>132167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2911,50 +3147,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52056</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>132168</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2972,32 +3212,36 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52056</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>132169</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s"/>
       <c r="K26" t="s"/>
@@ -3014,51 +3258,52 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52056</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>132170</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3072,50 +3317,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52056</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>47157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>235</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="K28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3135,50 +3384,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52056</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3198,50 +3451,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52056</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>132172</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3255,50 +3512,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52056</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>132173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>256</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3316,50 +3577,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52056</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>132174</v>
+      </c>
+      <c r="C32" t="s">
+        <v>262</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3373,50 +3638,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52056</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>132175</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3430,50 +3699,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52056</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>8642</v>
+      </c>
+      <c r="C34" t="s">
+        <v>276</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="J34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3493,50 +3766,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52056</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>78148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>284</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="J35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3550,41 +3827,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52056</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>132176</v>
+      </c>
+      <c r="C36" t="s">
+        <v>292</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="J36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
@@ -3613,50 +3894,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52056</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>6994</v>
+      </c>
+      <c r="C37" t="s">
+        <v>298</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="O37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3680,41 +3965,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52056</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>132177</v>
+      </c>
+      <c r="C38" t="s">
+        <v>305</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="J38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
@@ -3743,41 +4032,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52056</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>311</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="J39" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -3806,50 +4099,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52056</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>74420</v>
+      </c>
+      <c r="C40" t="s">
+        <v>317</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="J40" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="K40" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -3873,41 +4170,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52056</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>132179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>324</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="J41" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="K41" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -3926,41 +4227,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52056</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>132180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>330</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="J42" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="K42" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
@@ -3989,50 +4294,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52056</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>10827</v>
+      </c>
+      <c r="C43" t="s">
+        <v>336</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="J43" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="O43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4056,50 +4365,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52056</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>132181</v>
+      </c>
+      <c r="C44" t="s">
+        <v>343</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="J44" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="K44" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4123,50 +4436,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52056</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>132182</v>
+      </c>
+      <c r="C45" t="s">
+        <v>351</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="J45" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="O45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4180,50 +4497,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52056</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>132183</v>
+      </c>
+      <c r="C46" t="s">
+        <v>358</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="J46" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4247,50 +4568,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52056</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>132184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>365</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="J47" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4314,50 +4639,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52056</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>132185</v>
+      </c>
+      <c r="C48" t="s">
+        <v>372</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="J48" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="K48" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4375,50 +4704,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52056</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>132186</v>
+      </c>
+      <c r="C49" t="s">
+        <v>379</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="J49" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="K49" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="O49" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4442,7 +4775,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_200.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_200.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>LeeAnn C</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/18/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r573460547-Econo_Lodge-Weatherford_Texas.html</t>
@@ -174,9 +171,6 @@
     <t xml:space="preserve">The staff was very friendly. It was a nice place to stay. Very convenient. Right by the interstate. Bed was comfortable. Very good for the price. Very clean place. It has a pilot store right beside it with a Wendy’s if you need something quick. </t>
   </si>
   <si>
-    <t>making6</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r570008389-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Bill B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r567247923-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Geri C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r563798956-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -237,9 +225,6 @@
     <t xml:space="preserve">Older but clean and comfortable especially for the price. Pleased overall. No vending machine for water or soda however. We’d stay again. Quiet during our stay. It was a last minute decision with room availability. </t>
   </si>
   <si>
-    <t>Sonja C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r538280790-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -261,9 +246,6 @@
     <t>We needed a cheap room to sleep &amp; shower for the night driving from Houston to Roswell, New Mexico.  For $55 we got 2 queen beds in a non smoking room.  We were given a room next to the smoking rooms which I was very apprehensive about because I am very sensitive to cigarette smoke.  I figured "you get what you pay for".  We were very happy that we could not smell smoke at all throughout our stay.  The room was very clean, the beds were comfortable, the shower had great water pressure and the blackout curtains helped us sleep in for a little while.  The continental breakfast was just that: cereal, toast, muffins, apples, oranges, milk, orange juice &amp; coffee.  It was clean and presented well.  We have no complaints.More</t>
   </si>
   <si>
-    <t>Morgan F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r535700476-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -279,9 +261,6 @@
     <t>Alex was kind, courteous and helpful from the gecko when he answered our phone call when we were about forty minutes out. When heading out we had just missed breakfast by a few minutes and Shaun went out of her way to get us cups for coffee and muffins anyway. Great staff and great stay! Thanks so much :) Ps clean room and housekeeping on point</t>
   </si>
   <si>
-    <t>markburly</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r520876292-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -303,9 +282,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Bill_W5PT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r513274540-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -324,9 +300,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>Pleased_Customer123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r508415568-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -354,9 +327,6 @@
     <t>This is a very clean-nice-great priced motel that is near downtown Weatherford but close enough to I-20 that access to/from is easy.  The room we stayed in was very large, there was space to move around in and all the amenities were available in the room (i.e. good Wi-Fi signal, flat screen TV, desk, etc.).The only negative about the facility is that it does not have an elevator to the second floor.I would recommend this motel to my friends/relatives.More</t>
   </si>
   <si>
-    <t>TexasCatBird</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r501979822-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -372,9 +342,6 @@
     <t>We stayed overnight here in Weatherford so we could attend the annual Peach Festival.  Stayed on the Friday night prior to the event.  First, the location just off I-20 is only a couple of miles from downtown Weatherford.  Our check-in was friendly and efficient.  My hubby, brother, sister-in law, and I had separate rooms.  Our room was upstairs and theirs was on the first floor.  Our rooms were clean, comfortable, and without any odors.  However, the hallways had a musty, old-motel, smoky smell.  Once you were in the rooms there was no issue.  So for a 1 night stay at a very reasonable rate I would stay here again.</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r465702183-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -402,9 +369,6 @@
     <t>We drove 700 miles and booked online through booking.com. We checked in and was the told that we could not park our Penske truck on premises but could use an adjacent dirt unlit lot or park at the Pilot station across the street but might get towed.  It was 10PM and there were about 30 spaces in the lot.  After going for something to eat we decided that both options were unacceptable.  We asked for a refund which was denied because we had entered the room and Alex could give us no real reason why we could not park on-site.  We ended up leaving and getting a room closeby.  Awful experience.More</t>
   </si>
   <si>
-    <t>Ms L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r456269310-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -435,9 +399,6 @@
     <t>Very UNFRIENDLY service desk. Would not honor Trip Advisors advertised price for an unreserved stay UNLIKE every other hotel on the planet. Bad business. The couple things this place does have going for it are a Wendy's across the heavily truck travelled landscape known as 1-30. Heavy construction in this area for forever.More</t>
   </si>
   <si>
-    <t>sgtpppr84</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r428445904-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -459,9 +420,6 @@
     <t>We stayed one night at this Econo Lodge while driving to visit family. It's a simple, very basic hotel, but has exactly what's needed to get a good night's sleep. We paid $50 for the night with our AAA discount, which we found to be an exceptional value. Our room was larger than I would have expected and it even had a mini-fridge, microwave and coffee maker. The room was clean, the bed was comfortable and there was a simple continental breakfast available in the morning. The front desk clerk was very friendly and welcoming, checking us in quickly and filling our request for an extra blanket. We were very pleased with our stay. If you're traveling through Weatherford and all you need is a good, clean place to sleep, check out this hotel. More</t>
   </si>
   <si>
-    <t>GTinCOL</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r400631308-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -480,9 +438,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Alisa C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r392658231-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -501,9 +456,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>OU4EVR</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r382549932-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -519,9 +471,6 @@
     <t>Booked this room direct and got a great rate. Hotel was in a great location right off of I-20 about 2 miles from exit to Weatherford restaurants. Very clean and beds were comfortable. I did have to pull the bed topper off due to it being dirty but other than that beds were clean and comfortable. I didn't do breakfast so I'm unsure what kid they have. I would recommend this place to anyone traveling through.</t>
   </si>
   <si>
-    <t>curiousn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r378362157-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -540,9 +489,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>calgontakemeaway2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r371464838-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -558,9 +504,6 @@
     <t>I called and made reservations, and was immediately greeted by a sweet lady who took care of our stay and additional calls, verifying our reservation. It's a quiet small hotel, which appears to be family run. It was a delightful stay, in clean rooms, with fresh towels and a warm smile when we arrived and when we left. Thank you so much. When we are back in town, I will definitely look to stay with you again.</t>
   </si>
   <si>
-    <t>Erica L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r366377934-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -582,9 +525,6 @@
     <t>This place is small which is good when you are worried about deviance in the parking lot. It was right off the highway and near a gas station which was nice. Their breakfast was vary basic but good overall. The staff was polite and there was sufficient parking spots. The lobby was clean and the room was basically clean however, I did not like that the room had an odd odor and I literally went and bought cleaning supplies to wipe down the surfaces and spray the bed. I just hated the odor. The hotel was humid, bugs, mold and gross bacteria love humidity. I just hated that part of the stay. It just felt creepy. But it turned out that the stay was quiet, I didn't actually see any bugs inside the hotel, the bed showed NO signs of infestation, and the internet worked great. If I had to come back for the same price, I would. If I had to pay $15 more, I would look around for another room.More</t>
   </si>
   <si>
-    <t>Michelle P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r364746249-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -600,9 +540,6 @@
     <t>The prices are great. The rooms were very clean,  we have paid double the price and have gotten less,  the gentleman at the front desk was super friendly !  We came in very late could not find any where to stay in Fort Worth, he got us in quickly!Can't complain.</t>
   </si>
   <si>
-    <t>Zinny K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r356681149-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -624,9 +561,6 @@
     <t>I called ahead to make sure there was availability. The lady that answered was friendly, thorough, and quite helpful regarding truck parking. She explained that there wasn't room in their actual parking lot, but there is a Pilot Travel Center across the street (literally, 50 yards away with a Wendy's in it) or an empty dirt lot next door. Perfect. I got to the motel after 690 grueling hours and the gentleman at the front counter was friendly, courteous, and professional. The room was clean and comfortable. I've stayed in Quality Inns with less quality than this Econolodge. I put it up there with a nice Comfort Inn/Suites property. The Wifi here was around 6 gb/s down and 5 up, more than enough to FaceTime with my wife. For a low cost ($65+taxes) inn, it has great customer service, clean rooms, good wifi, and even a nice power center with 2 USB and 2 110V outlets. The TV is an old Tube TV, but for the price, who cares? I would have paid $70 for the room if it had a nice LCD 32" or bigger HDTV. The water pressure in the shower was excellent. The bed was comfortable to me. I stay at a lot (50+) motels and hotels per year. This is definitely on my list if I end up here again! Thank you for the accommodations. More</t>
   </si>
   <si>
-    <t>pixster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r333604172-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -648,9 +582,6 @@
     <t>If you want a good, clean affordable room while traveling in the Fort Worth area, this is the hotel to go to! While traveling back east from San Diego, I was looking for our normal stop hotel chain. We pulled into the local Subway shop to get a late supper and seen the hotel across the way. I decided to look on the TripAdvisor reviews. I was surprised when the ratings came back positive because I don't usually view an Econolodge as clean and up kept as this one was. It also advertised a price of 37.99. So I decided to check them out. The price was 49.99, with the 39.99 price being for singles and for 5 nites. Made sense and don't hold it against them. The room was clean. The beds comfortable. Modern and updated. It did not have a fridge or mic. Had coffee service in the room. (Some don't). The breakfast was continental. Donuts and cinnamon buns. Nothing fancy but a small breakfast to get you going. I give it a 4  because of 3 notable things. There was no elevator, the water was musty smelling in which my husband determined it was the shower head and not the water itself. (We reported this to the front desk before we left). And the fact that the non smoking rooms were on the same floor as the smoking rooms. I could smell the cigarette smoke wafting under...If you want a good, clean affordable room while traveling in the Fort Worth area, this is the hotel to go to! While traveling back east from San Diego, I was looking for our normal stop hotel chain. We pulled into the local Subway shop to get a late supper and seen the hotel across the way. I decided to look on the TripAdvisor reviews. I was surprised when the ratings came back positive because I don't usually view an Econolodge as clean and up kept as this one was. It also advertised a price of 37.99. So I decided to check them out. The price was 49.99, with the 39.99 price being for singles and for 5 nites. Made sense and don't hold it against them. The room was clean. The beds comfortable. Modern and updated. It did not have a fridge or mic. Had coffee service in the room. (Some don't). The breakfast was continental. Donuts and cinnamon buns. Nothing fancy but a small breakfast to get you going. I give it a 4  because of 3 notable things. There was no elevator, the water was musty smelling in which my husband determined it was the shower head and not the water itself. (We reported this to the front desk before we left). And the fact that the non smoking rooms were on the same floor as the smoking rooms. I could smell the cigarette smoke wafting under the doors and through the vents when the person next door lit up. The room itself DID NOT smell like a cigarette but the stairs going to the second floor did.  So you had to pass through the smell to get to your room. But a nice hotel and room overall. Would not hesitate to stop here again but would ask for a room away from the smoking rooms.More</t>
   </si>
   <si>
-    <t>KLC86</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r326522215-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -669,9 +600,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>Pasha B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r316421591-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -693,16 +621,25 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>RetNav2008</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r286033631-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
     <t>286033631</t>
   </si>
   <si>
-    <t>jham e</t>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Hotel Policies</t>
+  </si>
+  <si>
+    <t>I cannot complain on the quality of comfort of the hotel due to my family cancelling all reservations and will no longer support choice hotels. However, the problem is they have a standing policy to not allow customers under the age of 21 to rent a room. My son who will be 20 yrs old in December, Active Duty Military for 1 year travelling on leave was refused service due to his age. Furthermore, travelling with his 22 year old girlfriend was still denied a room due the credit card being used was in my sons name. I talked to the front desk, and was told I could rent the room for him and would have to accept full responsibility of the room. We were able to get rooms that offer better support for his situation at the Americas Best Value Inn. I'm glad we were around and also was able to find alternate arrangements so he wouldn't have had to sleep in his truck.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I cannot complain on the quality of comfort of the hotel due to my family cancelling all reservations and will no longer support choice hotels. However, the problem is they have a standing policy to not allow customers under the age of 21 to rent a room. My son who will be 20 yrs old in December, Active Duty Military for 1 year travelling on leave was refused service due to his age. Furthermore, travelling with his 22 year old girlfriend was still denied a room due the credit card being used was in my sons name. I talked to the front desk, and was told I could rent the room for him and would have to accept full responsibility of the room. We were able to get rooms that offer better support for his situation at the Americas Best Value Inn. I'm glad we were around and also was able to find alternate arrangements so he wouldn't have had to sleep in his truck.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r280881791-Econo_Lodge-Weatherford_Texas.html</t>
@@ -723,9 +660,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Sherry W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r280499794-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -747,9 +681,6 @@
     <t>I chose this hotel as a economical option for a short stay, not expecting anything.Pros: obviously been remodeled, good remodel, awesome shower (the nice water pressure and shower head will close the deal), awesome King bed, great price that includes a refrigerator and microwave (most more expensive hotels do not have both). Yeah, I went on about the shower, but you will too. Front desk was super helpful when I called to ask for a late check in. Continental breakfast was good enough. If you need more food, a travel center is nearly across the street. No noise kept me awake at night.Cons: hmmm, did not really stay there long enough to see or find any, you might not either. It will not matter after you take that shower.More</t>
   </si>
   <si>
-    <t>georgiagranny</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r274085487-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -768,9 +699,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>drb_ATL</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r269207566-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -786,9 +714,6 @@
     <t>Our room was on the ground floor right by the entrance, so I assumed we would be bothered by guests coming and going.  Thankfully, I slept very well, never hearing other guests at all. Their free breakfast was minimal, at best. But the price was right and suited our needs perfectly.</t>
   </si>
   <si>
-    <t>Belinda M J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r264709780-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -804,9 +729,6 @@
     <t>Pleasant stay. Grounds and building beautifully maintained. 2 Q - nonsmoking. Very friendly and helpful staff. Roomy with nice amenities, clean and fresh, quiet, with comfortable beds. Good shower, good TV reception and free wifi. Strong and reliable HVAC unit. True continental breakfast. Coffee, cereal, pastries - adequate considering low cost to stay. Fuel and fast food within walking distance. Second time here and would stay again.</t>
   </si>
   <si>
-    <t>robinagragg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r258474909-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -825,9 +747,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>_MaverickTravelor_</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r254198755-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -846,9 +765,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Vicki S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r246163191-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -870,9 +786,6 @@
     <t>Because of the good reviews we went ahead and booked a room at this hotel. It's so RARE to find a clean room for less than $70, but this is one! The desk clerk was very friendly and helpful, the hallway and room was very clean and the bed was comfortable. On the downside, it was the skimpiest breakfast I've seen in a LONG time. Just cold cereal or toast or muffins and juice. But I consoled myself with the fact that we'd saved $20 or $30 on the room rental. :-) Cold cereal never hurt anybody. --Also the "breakfast room" consists of 2 tables with 4 chairs each that are squeezed into the hallway at the front door. It's obvious that breakfast isn't high on their priority list. Would I stay here again? You bet! The price is good and the rooms are clean. That's what's most important to me.More</t>
   </si>
   <si>
-    <t>Whitney G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r220842880-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -894,9 +807,6 @@
     <t>We were traveling through the area at 230am and made a point to stop at this hotel.  I asked if they had rooms available and was told I had a choice.  I asked about a DAV rate or discount and then I was told we couldn't stay.  There was no room for a pickup pulling a trailer.  I pointed out there was one similar to ours in the parking lot already and said we could park next to that one so as to not take up more parking space.  We were denied a room and left.  I felt strongly it was because I mentioned being a disabled veteran because immediately afterwards there was no room at the inn...so to speak. I don't trav much but when rooms were available it's 230 am and I am turned away because you suddenly need the parking space that we were going to share with other vehicles like us...Not cool, not cool...I do not recommend this place.  It wasn't friendly and not military friendly for sure! More</t>
   </si>
   <si>
-    <t>Ldcorley12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r220006817-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -912,9 +822,6 @@
     <t xml:space="preserve">The place was nice and clean . Staff was friendly.  Wouldn't be a vacation hotel. Just a place to stay while traveling through the area :) we was satisfied for the night. You get for what you pay for here. </t>
   </si>
   <si>
-    <t>Tiffany B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r195837527-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -933,9 +840,6 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>lindsays17</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r193240558-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -951,9 +855,6 @@
     <t>We are in a different city every night due to business. Its not often to find a room as large and clean as this one. The staff was nice and we had a very comfortable stay. If business takes us in this area again we will definately stay here.</t>
   </si>
   <si>
-    <t>LNTS1205</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r192772128-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -969,9 +870,6 @@
     <t xml:space="preserve">Stated at hotel during a one night sports event.  Room was large and clean.  Staff was pleasant.  The only downfall we found was the continental breakfast.  The breakfast was VERY limited, with only a few cold cereals, muffins, and coffee.  </t>
   </si>
   <si>
-    <t>Kristen L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r184539622-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -990,9 +888,6 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>Nana2Five</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r183735068-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1008,9 +903,6 @@
     <t>We missed our exit to all hotels as we were u-turning we saw this Econo Lodge. I checked trip advisor &amp; saw the positive stays &amp; we ended up here. It is a good, clean hotel. Comfortable bed, good shower, quiet &amp; great price! We would stay again. I am so happy to be able to trust the info I read on trip advisor. Thank you!</t>
   </si>
   <si>
-    <t>Summertime1950</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r160778772-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1026,9 +918,6 @@
     <t>Our car broke down and we wound up at this place after the mechanic recommended it. It was 112 outside so we were thrilled to find a nice cool place after sitting in the heat waiting for a tow truck. The rooms were very clean and office staff nice. There was not a wide variety of places to eat within walking distance tho</t>
   </si>
   <si>
-    <t>Jill S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r157189220-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1047,9 +936,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>DaphneD718</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r155008740-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1071,9 +957,6 @@
     <t>Can I give this a ZERO rating?!!!  Terrible experience.  John, the manager, has zero people skills.  He is rude and accused us of having fake IDs even though I had booked online, had my AZ drivers license and my credit card. I had stayed in 2 other hotels that week since I was travelling to a convention and this was the only hotel that gave us trouble.  He even threatened to call the police because he would not listen to me that AZ drivers licenses have expiration dates that are far in the future. Mine is in 2058.  Ignorant staff, rude, and excuses their rudeness by saying they have the right to collect information.  I did not hesitate and was not rude about giving my information so I had no problem with that.  I did have a problem with him falsely accusing me of having a fake id and threatening me with calling the police.  NEVER AGAIN will I stay at this sad excuse of a hotel chain!!!More</t>
   </si>
   <si>
-    <t>katncol</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r152998860-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1092,9 +975,6 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>Alex Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r126989298-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1113,9 +993,6 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>BullardTraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r73834324-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1134,9 +1011,6 @@
     <t>August 2010</t>
   </si>
   <si>
-    <t>wshAkron</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r57129619-Econo_Lodge-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1153,9 +1027,6 @@
   </si>
   <si>
     <t>February 2010</t>
-  </si>
-  <si>
-    <t>jimmydaves</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d293241-r47276450-Econo_Lodge-Weatherford_Texas.html</t>
@@ -1691,38 +1562,34 @@
       <c r="A2" t="n">
         <v>52056</v>
       </c>
-      <c r="B2" t="n">
-        <v>132154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
@@ -1741,54 +1608,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52056</v>
       </c>
-      <c r="B3" t="n">
-        <v>132155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>56</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1802,54 +1665,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52056</v>
       </c>
-      <c r="B4" t="n">
-        <v>16664</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1863,54 +1722,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52056</v>
       </c>
-      <c r="B5" t="n">
-        <v>132156</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1924,54 +1779,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52056</v>
       </c>
-      <c r="B6" t="n">
-        <v>42298</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1985,45 +1836,41 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52056</v>
       </c>
-      <c r="B7" t="n">
-        <v>110482</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -2042,54 +1889,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52056</v>
       </c>
-      <c r="B8" t="n">
-        <v>132157</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2107,54 +1950,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52056</v>
       </c>
-      <c r="B9" t="n">
-        <v>132158</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2172,54 +2011,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52056</v>
       </c>
-      <c r="B10" t="n">
-        <v>132159</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2235,60 +2070,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52056</v>
       </c>
-      <c r="B11" t="n">
-        <v>49643</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2308,54 +2139,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52056</v>
       </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2367,60 +2194,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52056</v>
       </c>
-      <c r="B13" t="n">
-        <v>132160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2432,60 +2255,56 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52056</v>
       </c>
-      <c r="B14" t="n">
-        <v>132161</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2499,54 +2318,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52056</v>
       </c>
-      <c r="B15" t="n">
-        <v>132162</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2564,54 +2379,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52056</v>
       </c>
-      <c r="B16" t="n">
-        <v>102168</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2629,54 +2440,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52056</v>
       </c>
-      <c r="B17" t="n">
-        <v>132163</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2696,54 +2503,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52056</v>
       </c>
-      <c r="B18" t="n">
-        <v>43631</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2763,54 +2566,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52056</v>
       </c>
-      <c r="B19" t="n">
-        <v>132164</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2830,54 +2629,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52056</v>
       </c>
-      <c r="B20" t="n">
-        <v>54356</v>
-      </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2897,45 +2692,41 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52056</v>
       </c>
-      <c r="B21" t="n">
-        <v>8909</v>
-      </c>
-      <c r="C21" t="s">
-        <v>188</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -2954,54 +2745,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52056</v>
       </c>
-      <c r="B22" t="n">
-        <v>132165</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3015,54 +2802,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52056</v>
       </c>
-      <c r="B23" t="n">
-        <v>132166</v>
-      </c>
-      <c r="C23" t="s">
-        <v>202</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3082,54 +2865,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52056</v>
       </c>
-      <c r="B24" t="n">
-        <v>132167</v>
-      </c>
-      <c r="C24" t="s">
-        <v>210</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3147,54 +2926,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52056</v>
       </c>
-      <c r="B25" t="n">
-        <v>132168</v>
-      </c>
-      <c r="C25" t="s">
-        <v>217</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3212,98 +2987,109 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52056</v>
       </c>
-      <c r="B26" t="n">
-        <v>132169</v>
-      </c>
-      <c r="C26" t="s">
-        <v>225</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
-      </c>
-      <c r="J26" t="s"/>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
-      <c r="M26" t="s"/>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>57</v>
+      </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52056</v>
       </c>
-      <c r="B27" t="n">
-        <v>132170</v>
-      </c>
-      <c r="C27" t="s">
-        <v>228</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3317,54 +3103,50 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52056</v>
       </c>
-      <c r="B28" t="n">
-        <v>47157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>235</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3384,54 +3166,50 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52056</v>
       </c>
-      <c r="B29" t="n">
-        <v>132171</v>
-      </c>
-      <c r="C29" t="s">
-        <v>243</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3451,54 +3229,50 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52056</v>
       </c>
-      <c r="B30" t="n">
-        <v>132172</v>
-      </c>
-      <c r="C30" t="s">
-        <v>250</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3512,54 +3286,50 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52056</v>
       </c>
-      <c r="B31" t="n">
-        <v>132173</v>
-      </c>
-      <c r="C31" t="s">
-        <v>256</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3577,54 +3347,50 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52056</v>
       </c>
-      <c r="B32" t="n">
-        <v>132174</v>
-      </c>
-      <c r="C32" t="s">
-        <v>262</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3638,54 +3404,50 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52056</v>
       </c>
-      <c r="B33" t="n">
-        <v>132175</v>
-      </c>
-      <c r="C33" t="s">
-        <v>269</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3699,54 +3461,50 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52056</v>
       </c>
-      <c r="B34" t="n">
-        <v>8642</v>
-      </c>
-      <c r="C34" t="s">
-        <v>276</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3766,54 +3524,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52056</v>
       </c>
-      <c r="B35" t="n">
-        <v>78148</v>
-      </c>
-      <c r="C35" t="s">
-        <v>284</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3827,45 +3581,41 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52056</v>
       </c>
-      <c r="B36" t="n">
-        <v>132176</v>
-      </c>
-      <c r="C36" t="s">
-        <v>292</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="J36" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
@@ -3894,54 +3644,50 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52056</v>
       </c>
-      <c r="B37" t="n">
-        <v>6994</v>
-      </c>
-      <c r="C37" t="s">
-        <v>298</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3965,45 +3711,41 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52056</v>
       </c>
-      <c r="B38" t="n">
-        <v>132177</v>
-      </c>
-      <c r="C38" t="s">
-        <v>305</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
@@ -4032,45 +3774,41 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52056</v>
       </c>
-      <c r="B39" t="n">
-        <v>132178</v>
-      </c>
-      <c r="C39" t="s">
-        <v>311</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -4099,54 +3837,50 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52056</v>
       </c>
-      <c r="B40" t="n">
-        <v>74420</v>
-      </c>
-      <c r="C40" t="s">
-        <v>317</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="O40" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4170,45 +3904,41 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52056</v>
       </c>
-      <c r="B41" t="n">
-        <v>132179</v>
-      </c>
-      <c r="C41" t="s">
-        <v>324</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="J41" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -4227,45 +3957,41 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52056</v>
       </c>
-      <c r="B42" t="n">
-        <v>132180</v>
-      </c>
-      <c r="C42" t="s">
-        <v>330</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="K42" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
@@ -4294,54 +4020,50 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52056</v>
       </c>
-      <c r="B43" t="n">
-        <v>10827</v>
-      </c>
-      <c r="C43" t="s">
-        <v>336</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="J43" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="K43" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4365,54 +4087,50 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52056</v>
       </c>
-      <c r="B44" t="n">
-        <v>132181</v>
-      </c>
-      <c r="C44" t="s">
-        <v>343</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4436,54 +4154,50 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52056</v>
       </c>
-      <c r="B45" t="n">
-        <v>132182</v>
-      </c>
-      <c r="C45" t="s">
-        <v>351</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="J45" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="K45" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4497,54 +4211,50 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52056</v>
       </c>
-      <c r="B46" t="n">
-        <v>132183</v>
-      </c>
-      <c r="C46" t="s">
-        <v>358</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="J46" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="K46" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4568,54 +4278,50 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52056</v>
       </c>
-      <c r="B47" t="n">
-        <v>132184</v>
-      </c>
-      <c r="C47" t="s">
-        <v>365</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="J47" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="O47" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4639,54 +4345,50 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52056</v>
       </c>
-      <c r="B48" t="n">
-        <v>132185</v>
-      </c>
-      <c r="C48" t="s">
-        <v>372</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="J48" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="K48" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="O48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4704,54 +4406,50 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52056</v>
       </c>
-      <c r="B49" t="n">
-        <v>132186</v>
-      </c>
-      <c r="C49" t="s">
-        <v>379</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="J49" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="K49" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="L49" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="O49" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4775,7 +4473,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
